--- a/requirement/src/main/resources/templates/proposed.xlsx
+++ b/requirement/src/main/resources/templates/proposed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
